--- a/data/t1.xlsx
+++ b/data/t1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>md</t>
   </si>
@@ -25,6 +25,15 @@
   </si>
   <si>
     <t>inclination</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -59,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -95,17 +104,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -403,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +444,17 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,8 +464,17 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>770</v>
       </c>
@@ -444,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>2150</v>
       </c>
@@ -455,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>2180</v>
       </c>
@@ -466,7 +507,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2210</v>
       </c>
@@ -477,7 +518,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>2240</v>
       </c>
@@ -488,7 +529,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>2270</v>
       </c>
@@ -499,7 +540,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>2300</v>
       </c>
@@ -510,7 +551,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>2330</v>
       </c>
@@ -521,7 +562,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>2360</v>
       </c>
@@ -532,7 +573,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>2390</v>
       </c>
@@ -543,7 +584,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>2420</v>
       </c>
@@ -554,7 +595,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>2450</v>
       </c>
@@ -565,7 +606,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>2480</v>
       </c>
@@ -576,7 +617,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>2510</v>
       </c>
